--- a/Projects/CCRU/Data/KPIs_2018/KPIs for DB - Contract Execution.xlsx
+++ b/Projects/CCRU/Data/KPIs_2018/KPIs for DB - Contract Execution.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">Juice Promo Displays</t>
   </si>
   <si>
-    <t xml:space="preserve">HM@CCH Cooler </t>
+    <t xml:space="preserve">HM@CCH Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">HM@CCH Cooler Doors</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">SM@Juice Promo Displays</t>
   </si>
   <si>
-    <t xml:space="preserve">SM@CCH Cooler </t>
+    <t xml:space="preserve">SM@CCH Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">SM@CCH Cooler Doors</t>
@@ -280,7 +280,7 @@
     <t xml:space="preserve">CB@Juice Promo Displays</t>
   </si>
   <si>
-    <t xml:space="preserve">CB@CCH Cooler </t>
+    <t xml:space="preserve">CB@CCH Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">CB@CCH Cooler Doors</t>
@@ -349,7 +349,7 @@
     <t xml:space="preserve">CS@Juice Promo Displays</t>
   </si>
   <si>
-    <t xml:space="preserve">CS@CCH Cooler </t>
+    <t xml:space="preserve">CS@CCH Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">CS@CCH Cooler Doors</t>
@@ -385,7 +385,7 @@
     <t xml:space="preserve">CNT@Equipment contract</t>
   </si>
   <si>
-    <t xml:space="preserve">CNT@CCH Cooler </t>
+    <t xml:space="preserve">CNT@CCH Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">CNT@CCH Cooler Doors</t>
@@ -478,7 +478,7 @@
     <t xml:space="preserve">QSR@Equipment contract</t>
   </si>
   <si>
-    <t xml:space="preserve">QSR@CCH Cooler </t>
+    <t xml:space="preserve">QSR@CCH Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">QSR@CCH Cooler Doors</t>
@@ -535,7 +535,7 @@
     <t xml:space="preserve">PTR@Equipment contract</t>
   </si>
   <si>
-    <t xml:space="preserve">PTR@CCH Cooler </t>
+    <t xml:space="preserve">PTR@CCH Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">PTR@CCH Cooler Doors</t>
@@ -610,7 +610,7 @@
     <t xml:space="preserve">HRC_BTNC@Equipment contract</t>
   </si>
   <si>
-    <t xml:space="preserve">HRC_BTNC@CCH Cooler </t>
+    <t xml:space="preserve">HRC_BTNC@CCH Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">HRC_BTNC@CCH Cooler Doors</t>
@@ -667,7 +667,7 @@
     <t xml:space="preserve">HRC_CTS@Equipment contract</t>
   </si>
   <si>
-    <t xml:space="preserve">HRC_CTS@CCH Cooler </t>
+    <t xml:space="preserve">HRC_CTS@CCH Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">HRC_CTS@CCH Cooler Doors</t>
@@ -724,7 +724,7 @@
     <t xml:space="preserve">HRC_RC@Equipment contract</t>
   </si>
   <si>
-    <t xml:space="preserve">HRC_RC@CCH Cooler </t>
+    <t xml:space="preserve">HRC_RC@CCH Cooler</t>
   </si>
   <si>
     <t xml:space="preserve">HRC_RC@CCH Cooler Doors</t>
@@ -892,17 +892,16 @@
   <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4795918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.6887755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
